--- a/upload/feminicidio_2023.xlsx
+++ b/upload/feminicidio_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCMG\Desktop\cge\Feminicídios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962DFB6D-A0A3-4085-9E5E-6A7AD85B3D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BBEF6E-0E8F-4B08-AFB3-65D670E64297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{8E8D9F0E-36F6-483E-B938-121A7D1E2ABF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="131">
   <si>
     <t>MUNICIPIO_COD</t>
   </si>
@@ -320,9 +320,6 @@
     <t>13º Departamento - Barbacena</t>
   </si>
   <si>
-    <t>PARA DE MINAS</t>
-  </si>
-  <si>
     <t>PARACATU</t>
   </si>
   <si>
@@ -330,6 +327,108 @@
   </si>
   <si>
     <t>CAPINOPOLIS</t>
+  </si>
+  <si>
+    <t>BARBACENA</t>
+  </si>
+  <si>
+    <t>CAJURI</t>
+  </si>
+  <si>
+    <t>CONGONHAS</t>
+  </si>
+  <si>
+    <t>PIUMHI</t>
+  </si>
+  <si>
+    <t>PONTE NOVA</t>
+  </si>
+  <si>
+    <t>RIO CASCA</t>
+  </si>
+  <si>
+    <t>RIO NOVO</t>
+  </si>
+  <si>
+    <t>SABARA</t>
+  </si>
+  <si>
+    <t>SAO JOAO DEL REI</t>
+  </si>
+  <si>
+    <t>UBA</t>
+  </si>
+  <si>
+    <t>MARLIERIA</t>
+  </si>
+  <si>
+    <t>GUARDA-MOR</t>
+  </si>
+  <si>
+    <t>PORTEIRINHA</t>
+  </si>
+  <si>
+    <t>BOTUMIRIM</t>
+  </si>
+  <si>
+    <t>ARCOS</t>
+  </si>
+  <si>
+    <t>BRASILIA DE MINAS</t>
+  </si>
+  <si>
+    <t>CATAGUASES</t>
+  </si>
+  <si>
+    <t>CORREGO FUNDO</t>
+  </si>
+  <si>
+    <t>FRUTAL</t>
+  </si>
+  <si>
+    <t>GOVERNADOR VALADARES</t>
+  </si>
+  <si>
+    <t>ITABIRINHA</t>
+  </si>
+  <si>
+    <t>JOAO MONLEVADE</t>
+  </si>
+  <si>
+    <t>LAGOA SANTA</t>
+  </si>
+  <si>
+    <t>PARAOPEBA</t>
+  </si>
+  <si>
+    <t>UBERABA</t>
+  </si>
+  <si>
+    <t>ANDRADAS</t>
+  </si>
+  <si>
+    <t>CAXAMBU</t>
+  </si>
+  <si>
+    <t>DIVISA NOVA</t>
+  </si>
+  <si>
+    <t>SANTANA DO MANHUACU</t>
+  </si>
+  <si>
+    <t>ACAIACA</t>
+  </si>
+  <si>
+    <t>MESQUITA</t>
+  </si>
+  <si>
+    <t>GUIRICEMA</t>
+  </si>
+  <si>
+    <t>ARACAI</t>
+  </si>
+  <si>
+    <t>BURITIS</t>
   </si>
 </sst>
 </file>
@@ -739,13 +838,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11BF15E6-3641-49B4-8AD6-29D7CDB02F64}">
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:I95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -778,25 +881,25 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>310620</v>
+        <v>310160</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C2" s="6">
-        <v>44927</v>
+        <v>44959</v>
       </c>
       <c r="D2" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="4">
         <v>2023</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>11</v>
@@ -807,22 +910,22 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>311570</v>
+        <v>310240</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C3" s="6">
-        <v>44927</v>
+        <v>44993</v>
       </c>
       <c r="D3" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" s="4">
         <v>2023</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>13</v>
@@ -836,28 +939,28 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>312245</v>
+        <v>310350</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="6">
-        <v>44927</v>
+        <v>45022</v>
       </c>
       <c r="D4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" s="4">
         <v>2023</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
         <v>1</v>
@@ -871,10 +974,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="6">
-        <v>44928</v>
+        <v>45099</v>
       </c>
       <c r="D5" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E5" s="4">
         <v>2023</v>
@@ -886,7 +989,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I5" s="7">
         <v>1</v>
@@ -894,28 +997,28 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>315180</v>
+        <v>310350</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="6">
-        <v>44928</v>
+        <v>45113</v>
       </c>
       <c r="D6" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E6" s="4">
         <v>2023</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I6" s="7">
         <v>1</v>
@@ -923,25 +1026,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>310620</v>
+        <v>310560</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="C7" s="6">
-        <v>44932</v>
+        <v>45092</v>
       </c>
       <c r="D7" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E7" s="4">
         <v>2023</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>11</v>
@@ -952,13 +1055,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>311860</v>
+        <v>310620</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C8" s="6">
-        <v>44933</v>
+        <v>44927</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
@@ -967,13 +1070,13 @@
         <v>2023</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I8" s="7">
         <v>1</v>
@@ -981,13 +1084,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>316870</v>
+        <v>310620</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C9" s="6">
-        <v>44934</v>
+        <v>44932</v>
       </c>
       <c r="D9" s="7">
         <v>1</v>
@@ -996,10 +1099,10 @@
         <v>2023</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>11</v>
@@ -1010,13 +1113,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>311930</v>
+        <v>310620</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C10" s="6">
-        <v>44934</v>
+        <v>44940</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -1025,13 +1128,13 @@
         <v>2023</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I10" s="7">
         <v>1</v>
@@ -1039,25 +1142,25 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>312260</v>
+        <v>310620</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C11" s="6">
-        <v>44935</v>
+        <v>44976</v>
       </c>
       <c r="D11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="4">
         <v>2023</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>11</v>
@@ -1068,54 +1171,54 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>314280</v>
+        <v>310620</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C12" s="6">
-        <v>44935</v>
+        <v>44980</v>
       </c>
       <c r="D12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="4">
         <v>2023</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>314330</v>
+        <v>310620</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C13" s="6">
-        <v>44937</v>
+        <v>45006</v>
       </c>
       <c r="D13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" s="4">
         <v>2023</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>11</v>
@@ -1126,25 +1229,25 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>311340</v>
+        <v>310620</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C14" s="6">
-        <v>44938</v>
+        <v>45018</v>
       </c>
       <c r="D14" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E14" s="4">
         <v>2023</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>11</v>
@@ -1155,28 +1258,28 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>314320</v>
+        <v>310620</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C15" s="6">
-        <v>44938</v>
+        <v>45045</v>
       </c>
       <c r="D15" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E15" s="4">
         <v>2023</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I15" s="7">
         <v>1</v>
@@ -1190,10 +1293,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="6">
-        <v>44940</v>
+        <v>45061</v>
       </c>
       <c r="D16" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16" s="4">
         <v>2023</v>
@@ -1213,25 +1316,25 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>314655</v>
+        <v>310620</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C17" s="6">
-        <v>44940</v>
+        <v>45067</v>
       </c>
       <c r="D17" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E17" s="4">
         <v>2023</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>11</v>
@@ -1242,57 +1345,57 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>310690</v>
+        <v>310620</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C18" s="6">
-        <v>44941</v>
+        <v>45085</v>
       </c>
       <c r="D18" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E18" s="4">
         <v>2023</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>313010</v>
+        <v>310620</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C19" s="6">
-        <v>44941</v>
+        <v>45094</v>
       </c>
       <c r="D19" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E19" s="4">
         <v>2023</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I19" s="7">
         <v>1</v>
@@ -1300,28 +1403,28 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>313550</v>
+        <v>310620</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C20" s="6">
-        <v>44941</v>
+        <v>45137</v>
       </c>
       <c r="D20" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E20" s="4">
         <v>2023</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I20" s="7">
         <v>1</v>
@@ -1329,28 +1432,28 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>311570</v>
+        <v>310670</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C21" s="6">
-        <v>44941</v>
+        <v>44969</v>
       </c>
       <c r="D21" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="4">
         <v>2023</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I21" s="7">
         <v>1</v>
@@ -1358,25 +1461,25 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>317020</v>
+        <v>310670</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C22" s="6">
-        <v>44947</v>
+        <v>44990</v>
       </c>
       <c r="D22" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22" s="4">
         <v>2023</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>11</v>
@@ -1387,28 +1490,28 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>312430</v>
+        <v>310670</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C23" s="6">
-        <v>44947</v>
+        <v>45098</v>
       </c>
       <c r="D23" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E23" s="4">
         <v>2023</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I23" s="7">
         <v>1</v>
@@ -1416,28 +1519,28 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>313440</v>
+        <v>310670</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C24" s="6">
-        <v>44947</v>
+        <v>45123</v>
       </c>
       <c r="D24" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E24" s="4">
         <v>2023</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I24" s="7">
         <v>1</v>
@@ -1445,22 +1548,22 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>311070</v>
+        <v>311020</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="C25" s="6">
-        <v>44951</v>
+        <v>45127</v>
       </c>
       <c r="D25" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E25" s="4">
         <v>2023</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>13</v>
@@ -1474,13 +1577,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>314140</v>
+        <v>311070</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="6">
-        <v>44953</v>
+        <v>44951</v>
       </c>
       <c r="D26" s="7">
         <v>1</v>
@@ -1489,7 +1592,7 @@
         <v>2023</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>13</v>
@@ -1503,22 +1606,22 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>317040</v>
+        <v>311230</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="C27" s="6">
-        <v>44955</v>
+        <v>45026</v>
       </c>
       <c r="D27" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E27" s="4">
         <v>2023</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>13</v>
@@ -1532,13 +1635,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>317040</v>
+        <v>311340</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C28" s="6">
-        <v>44955</v>
+        <v>44938</v>
       </c>
       <c r="D28" s="7">
         <v>1</v>
@@ -1547,13 +1650,13 @@
         <v>2023</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I28" s="7">
         <v>1</v>
@@ -1561,22 +1664,22 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>312230</v>
+        <v>311340</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C29" s="6">
-        <v>44956</v>
+        <v>45094</v>
       </c>
       <c r="D29" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E29" s="4">
         <v>2023</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>13</v>
@@ -1590,22 +1693,22 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>310160</v>
+        <v>311570</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C30" s="6">
-        <v>44959</v>
+        <v>44927</v>
       </c>
       <c r="D30" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="4">
         <v>2023</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>13</v>
@@ -1619,28 +1722,28 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>311860</v>
+        <v>311800</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="C31" s="6">
-        <v>44959</v>
+        <v>45076</v>
       </c>
       <c r="D31" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E31" s="4">
         <v>2023</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I31" s="7">
         <v>1</v>
@@ -1648,28 +1751,28 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>314110</v>
+        <v>311820</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C32" s="6">
-        <v>44959</v>
+        <v>44997</v>
       </c>
       <c r="D32" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" s="4">
         <v>2023</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I32" s="7">
         <v>1</v>
@@ -1677,13 +1780,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>315950</v>
+        <v>311860</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C33" s="6">
-        <v>44963</v>
+        <v>44982</v>
       </c>
       <c r="D33" s="7">
         <v>2</v>
@@ -1692,13 +1795,13 @@
         <v>2023</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I33" s="7">
         <v>1</v>
@@ -1706,28 +1809,28 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>314930</v>
+        <v>311860</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C34" s="6">
-        <v>44964</v>
+        <v>45107</v>
       </c>
       <c r="D34" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E34" s="4">
         <v>2023</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I34" s="7">
         <v>1</v>
@@ -1735,28 +1838,28 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>316940</v>
+        <v>311860</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C35" s="6">
-        <v>44965</v>
+        <v>45129</v>
       </c>
       <c r="D35" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E35" s="4">
         <v>2023</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I35" s="7">
         <v>1</v>
@@ -1764,28 +1867,28 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>310620</v>
+        <v>311930</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C36" s="6">
-        <v>44968</v>
+        <v>45100</v>
       </c>
       <c r="D36" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E36" s="4">
         <v>2023</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I36" s="7">
         <v>1</v>
@@ -1793,25 +1896,25 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>310670</v>
+        <v>312230</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C37" s="6">
-        <v>44969</v>
+        <v>44956</v>
       </c>
       <c r="D37" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="4">
         <v>2023</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>11</v>
@@ -1822,28 +1925,28 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>314610</v>
+        <v>312260</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C38" s="6">
-        <v>44971</v>
+        <v>44935</v>
       </c>
       <c r="D38" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" s="4">
         <v>2023</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I38" s="7">
         <v>1</v>
@@ -1851,28 +1954,28 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>317020</v>
+        <v>312430</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C39" s="6">
-        <v>44973</v>
+        <v>45100</v>
       </c>
       <c r="D39" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E39" s="4">
         <v>2023</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I39" s="7">
         <v>1</v>
@@ -1880,13 +1983,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>310620</v>
+        <v>312760</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C40" s="6">
-        <v>44976</v>
+        <v>44979</v>
       </c>
       <c r="D40" s="7">
         <v>2</v>
@@ -1895,10 +1998,10 @@
         <v>2023</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>11</v>
@@ -1909,28 +2012,28 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>314465</v>
+        <v>312980</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="C41" s="6">
-        <v>44977</v>
+        <v>45024</v>
       </c>
       <c r="D41" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E41" s="4">
         <v>2023</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I41" s="7">
         <v>1</v>
@@ -1938,25 +2041,25 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>312760</v>
+        <v>312980</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="C42" s="6">
-        <v>44979</v>
+        <v>45042</v>
       </c>
       <c r="D42" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E42" s="4">
         <v>2023</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>11</v>
@@ -1967,54 +2070,54 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>310620</v>
+        <v>312980</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="C43" s="6">
-        <v>44980</v>
+        <v>45100</v>
       </c>
       <c r="D43" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E43" s="4">
         <v>2023</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I43" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>311860</v>
+        <v>313020</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="C44" s="6">
-        <v>44982</v>
+        <v>45031</v>
       </c>
       <c r="D44" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E44" s="4">
         <v>2023</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>11</v>
@@ -2025,13 +2128,13 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>310670</v>
+        <v>313130</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C45" s="6">
-        <v>44982</v>
+        <v>44983</v>
       </c>
       <c r="D45" s="7">
         <v>2</v>
@@ -2040,13 +2143,13 @@
         <v>2023</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I45" s="7">
         <v>1</v>
@@ -2054,28 +2157,28 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>313690</v>
+        <v>313190</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C46" s="6">
-        <v>44982</v>
+        <v>45011</v>
       </c>
       <c r="D46" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46" s="4">
         <v>2023</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I46" s="7">
         <v>1</v>
@@ -2083,22 +2186,22 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>313130</v>
+        <v>313190</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C47" s="6">
-        <v>44983</v>
+        <v>45021</v>
       </c>
       <c r="D47" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E47" s="4">
         <v>2023</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>13</v>
@@ -2118,10 +2221,10 @@
         <v>49</v>
       </c>
       <c r="C48" s="6">
-        <v>44983</v>
+        <v>44993</v>
       </c>
       <c r="D48" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48" s="4">
         <v>2023</v>
@@ -2133,7 +2236,7 @@
         <v>13</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I48" s="7">
         <v>1</v>
@@ -2141,28 +2244,28 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>315725</v>
+        <v>313670</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="C49" s="6">
-        <v>44984</v>
+        <v>45051</v>
       </c>
       <c r="D49" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E49" s="4">
         <v>2023</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I49" s="7">
         <v>1</v>
@@ -2170,16 +2273,16 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>314390</v>
+        <v>313670</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50" s="6">
-        <v>44985</v>
+        <v>45103</v>
       </c>
       <c r="D50" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E50" s="4">
         <v>2023</v>
@@ -2199,22 +2302,22 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>316720</v>
+        <v>313670</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C51" s="6">
-        <v>44986</v>
+        <v>45137</v>
       </c>
       <c r="D51" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E51" s="4">
         <v>2023</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>13</v>
@@ -2228,28 +2331,28 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>310620</v>
+        <v>313940</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="C52" s="6">
-        <v>44987</v>
+        <v>45022</v>
       </c>
       <c r="D52" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E52" s="4">
         <v>2023</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I52" s="7">
         <v>1</v>
@@ -2257,25 +2360,25 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>315460</v>
+        <v>314140</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C53" s="6">
-        <v>44988</v>
+        <v>44953</v>
       </c>
       <c r="D53" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E53" s="4">
         <v>2023</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>11</v>
@@ -2286,22 +2389,22 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>317130</v>
+        <v>314330</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C54" s="6">
-        <v>44988</v>
+        <v>44937</v>
       </c>
       <c r="D54" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E54" s="4">
         <v>2023</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>13</v>
@@ -2315,25 +2418,25 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>310670</v>
+        <v>314330</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C55" s="6">
-        <v>44990</v>
+        <v>45032</v>
       </c>
       <c r="D55" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E55" s="4">
         <v>2023</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>11</v>
@@ -2344,28 +2447,28 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>312160</v>
+        <v>314390</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C56" s="6">
-        <v>44991</v>
+        <v>44985</v>
       </c>
       <c r="D56" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E56" s="4">
         <v>2023</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I56" s="7">
         <v>1</v>
@@ -2373,22 +2476,22 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>310240</v>
+        <v>314390</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C57" s="6">
-        <v>44993</v>
+        <v>45115</v>
       </c>
       <c r="D57" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E57" s="4">
         <v>2023</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>13</v>
@@ -2402,22 +2505,22 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>313670</v>
+        <v>314655</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C58" s="6">
-        <v>44993</v>
+        <v>44940</v>
       </c>
       <c r="D58" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E58" s="4">
         <v>2023</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>13</v>
@@ -2431,13 +2534,13 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>310620</v>
+        <v>314800</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="C59" s="6">
-        <v>44996</v>
+        <v>45012</v>
       </c>
       <c r="D59" s="7">
         <v>3</v>
@@ -2446,13 +2549,13 @@
         <v>2023</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I59" s="7">
         <v>1</v>
@@ -2460,22 +2563,22 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>311820</v>
+        <v>314800</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C60" s="6">
-        <v>44997</v>
+        <v>45067</v>
       </c>
       <c r="D60" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E60" s="4">
         <v>2023</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>13</v>
@@ -2489,57 +2592,57 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>310620</v>
+        <v>315100</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="C61" s="6">
-        <v>45000</v>
+        <v>45042</v>
       </c>
       <c r="D61" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E61" s="4">
         <v>2023</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I61" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>310720</v>
+        <v>315150</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="C62" s="6">
-        <v>45000</v>
+        <v>45060</v>
       </c>
       <c r="D62" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E62" s="4">
         <v>2023</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I62" s="7">
         <v>1</v>
@@ -2547,16 +2650,16 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>313130</v>
+        <v>315210</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="C63" s="6">
-        <v>45001</v>
+        <v>45094</v>
       </c>
       <c r="D63" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E63" s="4">
         <v>2023</v>
@@ -2568,7 +2671,7 @@
         <v>13</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I63" s="7">
         <v>1</v>
@@ -2576,28 +2679,28 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>314530</v>
+        <v>315210</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="C64" s="6">
-        <v>45001</v>
+        <v>45113</v>
       </c>
       <c r="D64" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E64" s="4">
         <v>2023</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I64" s="7">
         <v>1</v>
@@ -2605,13 +2708,13 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>315140</v>
+        <v>315460</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C65" s="6">
-        <v>45003</v>
+        <v>44988</v>
       </c>
       <c r="D65" s="7">
         <v>3</v>
@@ -2620,10 +2723,10 @@
         <v>2023</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>11</v>
@@ -2634,28 +2737,28 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>314630</v>
+        <v>315490</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="C66" s="6">
-        <v>45003</v>
+        <v>45090</v>
       </c>
       <c r="D66" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E66" s="4">
         <v>2023</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I66" s="7">
         <v>1</v>
@@ -2663,28 +2766,28 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>310180</v>
+        <v>315540</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="C67" s="6">
-        <v>45005</v>
+        <v>45105</v>
       </c>
       <c r="D67" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E67" s="4">
         <v>2023</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I67" s="7">
         <v>1</v>
@@ -2692,25 +2795,25 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>310620</v>
+        <v>315670</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="C68" s="6">
-        <v>45006</v>
+        <v>45057</v>
       </c>
       <c r="D68" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E68" s="4">
         <v>2023</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>11</v>
@@ -2721,22 +2824,22 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>315140</v>
+        <v>316250</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C69" s="6">
-        <v>45007</v>
+        <v>45109</v>
       </c>
       <c r="D69" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E69" s="4">
         <v>2023</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>13</v>
@@ -2750,13 +2853,13 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>313190</v>
+        <v>316720</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C70" s="6">
-        <v>45011</v>
+        <v>44986</v>
       </c>
       <c r="D70" s="7">
         <v>3</v>
@@ -2765,7 +2868,7 @@
         <v>2023</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>13</v>
@@ -2779,28 +2882,28 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>313420</v>
+        <v>316870</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C71" s="6">
-        <v>45011</v>
+        <v>44934</v>
       </c>
       <c r="D71" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E71" s="4">
         <v>2023</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I71" s="7">
         <v>1</v>
@@ -2808,28 +2911,28 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>311940</v>
+        <v>316990</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="C72" s="6">
-        <v>45011</v>
+        <v>45135</v>
       </c>
       <c r="D72" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E72" s="4">
         <v>2023</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I72" s="7">
         <v>1</v>
@@ -2837,22 +2940,22 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>314800</v>
+        <v>317020</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C73" s="6">
-        <v>45012</v>
+        <v>44947</v>
       </c>
       <c r="D73" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E73" s="4">
         <v>2023</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>13</v>
@@ -2866,13 +2969,13 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>313240</v>
+        <v>317020</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="C74" s="6">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="D74" s="7">
         <v>4</v>
@@ -2881,13 +2984,13 @@
         <v>2023</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I74" s="7">
         <v>1</v>
@@ -2895,25 +2998,25 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>310620</v>
+        <v>317020</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C75" s="6">
-        <v>45018</v>
+        <v>45123</v>
       </c>
       <c r="D75" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E75" s="4">
         <v>2023</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H75" s="4" t="s">
         <v>11</v>
@@ -2924,22 +3027,22 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>315140</v>
+        <v>317040</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C76" s="6">
-        <v>45018</v>
+        <v>44955</v>
       </c>
       <c r="D76" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E76" s="4">
         <v>2023</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>13</v>
@@ -2953,22 +3056,22 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>313190</v>
+        <v>317040</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C77" s="6">
-        <v>45021</v>
+        <v>45065</v>
       </c>
       <c r="D77" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E77" s="4">
         <v>2023</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>13</v>
@@ -2982,28 +3085,28 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>314600</v>
+        <v>317130</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="C78" s="6">
-        <v>45021</v>
+        <v>44988</v>
       </c>
       <c r="D78" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E78" s="4">
         <v>2023</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I78" s="7">
         <v>1</v>
@@ -3011,22 +3114,22 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>310350</v>
+        <v>315140</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C79" s="6">
-        <v>45022</v>
+        <v>45003</v>
       </c>
       <c r="D79" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E79" s="4">
         <v>2023</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>13</v>
@@ -3040,22 +3143,22 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>313940</v>
+        <v>315140</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C80" s="6">
-        <v>45022</v>
+        <v>45007</v>
       </c>
       <c r="D80" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E80" s="4">
         <v>2023</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>13</v>
@@ -3069,13 +3172,13 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>315895</v>
+        <v>315140</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C81" s="6">
-        <v>45023</v>
+        <v>45018</v>
       </c>
       <c r="D81" s="7">
         <v>4</v>
@@ -3084,13 +3187,13 @@
         <v>2023</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I81" s="7">
         <v>1</v>
@@ -3098,25 +3201,25 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>312980</v>
+        <v>314030</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C82" s="6">
-        <v>45024</v>
+        <v>45052</v>
       </c>
       <c r="D82" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E82" s="4">
         <v>2023</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>11</v>
@@ -3127,22 +3230,22 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>311230</v>
+        <v>312860</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C83" s="6">
-        <v>45026</v>
+        <v>45121</v>
       </c>
       <c r="D83" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E83" s="4">
         <v>2023</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>13</v>
@@ -3156,28 +3259,28 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>311860</v>
+        <v>315220</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="C84" s="6">
-        <v>45030</v>
+        <v>45129</v>
       </c>
       <c r="D84" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E84" s="4">
         <v>2023</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I84" s="7">
         <v>1</v>
@@ -3185,22 +3288,22 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>313020</v>
+        <v>315220</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C85" s="6">
-        <v>45031</v>
+        <v>45136</v>
       </c>
       <c r="D85" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E85" s="4">
         <v>2023</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>13</v>
@@ -3209,33 +3312,33 @@
         <v>11</v>
       </c>
       <c r="I85" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>311830</v>
+        <v>310850</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C86" s="6">
-        <v>45031</v>
+        <v>45130</v>
       </c>
       <c r="D86" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E86" s="4">
         <v>2023</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I86" s="7">
         <v>1</v>
@@ -3243,28 +3346,28 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>314330</v>
+        <v>310160</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C87" s="6">
-        <v>45032</v>
+        <v>45052</v>
       </c>
       <c r="D87" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E87" s="4">
         <v>2023</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I87" s="7">
         <v>1</v>
@@ -3272,28 +3375,28 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>314710</v>
+        <v>310350</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="C88" s="6">
-        <v>45033</v>
+        <v>44928</v>
       </c>
       <c r="D88" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E88" s="4">
         <v>2023</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I88" s="7">
         <v>1</v>
@@ -3301,22 +3404,22 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>314700</v>
+        <v>310350</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C89" s="6">
-        <v>45038</v>
+        <v>45051</v>
       </c>
       <c r="D89" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E89" s="4">
         <v>2023</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>13</v>
@@ -3330,28 +3433,28 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>312980</v>
+        <v>310420</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="C90" s="6">
-        <v>45042</v>
+        <v>45091</v>
       </c>
       <c r="D90" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E90" s="4">
         <v>2023</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I90" s="7">
         <v>1</v>
@@ -3359,28 +3462,28 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>315100</v>
+        <v>310560</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C91" s="6">
-        <v>45042</v>
+        <v>45123</v>
       </c>
       <c r="D91" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E91" s="4">
         <v>2023</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I91" s="7">
         <v>1</v>
@@ -3388,25 +3491,25 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>311260</v>
+        <v>310620</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="C92" s="6">
-        <v>45042</v>
+        <v>44968</v>
       </c>
       <c r="D92" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E92" s="4">
         <v>2023</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>15</v>
@@ -3423,10 +3526,10 @@
         <v>9</v>
       </c>
       <c r="C93" s="6">
-        <v>45045</v>
+        <v>44996</v>
       </c>
       <c r="D93" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E93" s="4">
         <v>2023</v>
@@ -3438,7 +3541,7 @@
         <v>10</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I93" s="7">
         <v>1</v>
@@ -3452,10 +3555,10 @@
         <v>9</v>
       </c>
       <c r="C94" s="6">
-        <v>45045</v>
+        <v>45000</v>
       </c>
       <c r="D94" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E94" s="4">
         <v>2023</v>
@@ -3470,35 +3573,2413 @@
         <v>15</v>
       </c>
       <c r="I94" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
+        <v>310620</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="6">
+        <v>44987</v>
+      </c>
+      <c r="D95" s="7">
+        <v>3</v>
+      </c>
+      <c r="E95" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I95" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>310620</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="6">
+        <v>45045</v>
+      </c>
+      <c r="D96" s="7">
+        <v>4</v>
+      </c>
+      <c r="E96" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I96" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>310620</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="6">
+        <v>45068</v>
+      </c>
+      <c r="D97" s="7">
+        <v>5</v>
+      </c>
+      <c r="E97" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I97" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>310620</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="6">
+        <v>45081</v>
+      </c>
+      <c r="D98" s="7">
+        <v>6</v>
+      </c>
+      <c r="E98" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I98" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>310670</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C99" s="6">
+        <v>44982</v>
+      </c>
+      <c r="D99" s="7">
+        <v>2</v>
+      </c>
+      <c r="E99" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I99" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>310670</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C100" s="6">
+        <v>44978</v>
+      </c>
+      <c r="D100" s="7">
+        <v>2</v>
+      </c>
+      <c r="E100" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I100" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>310670</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101" s="6">
+        <v>45069</v>
+      </c>
+      <c r="D101" s="7">
+        <v>5</v>
+      </c>
+      <c r="E101" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I101" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>310670</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C102" s="6">
+        <v>45088</v>
+      </c>
+      <c r="D102" s="7">
+        <v>6</v>
+      </c>
+      <c r="E102" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I102" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>310690</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" s="6">
+        <v>44941</v>
+      </c>
+      <c r="D103" s="7">
+        <v>1</v>
+      </c>
+      <c r="E103" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I103" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>310860</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C104" s="6">
+        <v>45052</v>
+      </c>
+      <c r="D104" s="7">
+        <v>5</v>
+      </c>
+      <c r="E104" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I104" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>311340</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" s="6">
+        <v>45055</v>
+      </c>
+      <c r="D105" s="7">
+        <v>5</v>
+      </c>
+      <c r="E105" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I105" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>311530</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106" s="6">
+        <v>45131</v>
+      </c>
+      <c r="D106" s="7">
+        <v>7</v>
+      </c>
+      <c r="E106" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I106" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>311830</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C107" s="6">
+        <v>45031</v>
+      </c>
+      <c r="D107" s="7">
+        <v>4</v>
+      </c>
+      <c r="E107" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I107" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>311860</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" s="6">
+        <v>44933</v>
+      </c>
+      <c r="D108" s="7">
+        <v>1</v>
+      </c>
+      <c r="E108" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I108" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>311860</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="6">
+        <v>44959</v>
+      </c>
+      <c r="D109" s="7">
+        <v>2</v>
+      </c>
+      <c r="E109" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I109" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>311860</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" s="6">
+        <v>45030</v>
+      </c>
+      <c r="D110" s="7">
+        <v>4</v>
+      </c>
+      <c r="E110" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I110" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>311860</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" s="6">
+        <v>45045</v>
+      </c>
+      <c r="D111" s="7">
+        <v>4</v>
+      </c>
+      <c r="E111" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I111" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>311860</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" s="6">
+        <v>45078</v>
+      </c>
+      <c r="D112" s="7">
+        <v>6</v>
+      </c>
+      <c r="E112" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I112" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>311930</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" s="6">
+        <v>44934</v>
+      </c>
+      <c r="D113" s="7">
+        <v>1</v>
+      </c>
+      <c r="E113" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I113" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>311995</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114" s="6">
+        <v>45134</v>
+      </c>
+      <c r="D114" s="7">
+        <v>7</v>
+      </c>
+      <c r="E114" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I114" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>312245</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" s="6">
+        <v>44927</v>
+      </c>
+      <c r="D115" s="7">
+        <v>1</v>
+      </c>
+      <c r="E115" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I115" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>312430</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C116" s="6">
+        <v>44947</v>
+      </c>
+      <c r="D116" s="7">
+        <v>1</v>
+      </c>
+      <c r="E116" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I116" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>312710</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C117" s="6">
+        <v>45109</v>
+      </c>
+      <c r="D117" s="7">
+        <v>7</v>
+      </c>
+      <c r="E117" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I117" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>312770</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C118" s="6">
+        <v>45078</v>
+      </c>
+      <c r="D118" s="7">
+        <v>6</v>
+      </c>
+      <c r="E118" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I118" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <v>312980</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C119" s="6">
+        <v>44953</v>
+      </c>
+      <c r="D119" s="7">
+        <v>1</v>
+      </c>
+      <c r="E119" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I119" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>313010</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C120" s="6">
+        <v>44941</v>
+      </c>
+      <c r="D120" s="7">
+        <v>1</v>
+      </c>
+      <c r="E120" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I120" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <v>313130</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C121" s="6">
+        <v>45001</v>
+      </c>
+      <c r="D121" s="7">
+        <v>3</v>
+      </c>
+      <c r="E121" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I121" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>313130</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C122" s="6">
+        <v>45044</v>
+      </c>
+      <c r="D122" s="7">
+        <v>4</v>
+      </c>
+      <c r="E122" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I122" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <v>313130</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C123" s="6">
+        <v>45050</v>
+      </c>
+      <c r="D123" s="7">
+        <v>5</v>
+      </c>
+      <c r="E123" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I123" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <v>313180</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C124" s="6">
+        <v>45088</v>
+      </c>
+      <c r="D124" s="7">
+        <v>6</v>
+      </c>
+      <c r="E124" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I124" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <v>313240</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C125" s="6">
+        <v>45017</v>
+      </c>
+      <c r="D125" s="7">
+        <v>4</v>
+      </c>
+      <c r="E125" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I125" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <v>313420</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C126" s="6">
+        <v>45011</v>
+      </c>
+      <c r="D126" s="7">
+        <v>3</v>
+      </c>
+      <c r="E126" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I126" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>313440</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C127" s="6">
+        <v>44947</v>
+      </c>
+      <c r="D127" s="7">
+        <v>1</v>
+      </c>
+      <c r="E127" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I127" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>313550</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C128" s="6">
+        <v>44941</v>
+      </c>
+      <c r="D128" s="7">
+        <v>1</v>
+      </c>
+      <c r="E128" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I128" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>313620</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C129" s="6">
+        <v>45064</v>
+      </c>
+      <c r="D129" s="7">
+        <v>5</v>
+      </c>
+      <c r="E129" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I129" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <v>313670</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C130" s="6">
+        <v>44983</v>
+      </c>
+      <c r="D130" s="7">
+        <v>2</v>
+      </c>
+      <c r="E130" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I130" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>313760</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C131" s="6">
+        <v>45120</v>
+      </c>
+      <c r="D131" s="7">
+        <v>7</v>
+      </c>
+      <c r="E131" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I131" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>314110</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C132" s="6">
+        <v>44959</v>
+      </c>
+      <c r="D132" s="7">
+        <v>2</v>
+      </c>
+      <c r="E132" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I132" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>314280</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C133" s="6">
+        <v>44935</v>
+      </c>
+      <c r="D133" s="7">
+        <v>1</v>
+      </c>
+      <c r="E133" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I133" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>314320</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C134" s="6">
+        <v>44938</v>
+      </c>
+      <c r="D134" s="7">
+        <v>1</v>
+      </c>
+      <c r="E134" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I134" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>314330</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C135" s="6">
+        <v>45137</v>
+      </c>
+      <c r="D135" s="7">
+        <v>7</v>
+      </c>
+      <c r="E135" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I135" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>314390</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C136" s="6">
+        <v>45020</v>
+      </c>
+      <c r="D136" s="7">
+        <v>4</v>
+      </c>
+      <c r="E136" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I136" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>314600</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C137" s="6">
+        <v>45021</v>
+      </c>
+      <c r="D137" s="7">
+        <v>4</v>
+      </c>
+      <c r="E137" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I137" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>314610</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C138" s="6">
+        <v>44971</v>
+      </c>
+      <c r="D138" s="7">
+        <v>2</v>
+      </c>
+      <c r="E138" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I138" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>314630</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C139" s="6">
+        <v>45003</v>
+      </c>
+      <c r="D139" s="7">
+        <v>3</v>
+      </c>
+      <c r="E139" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I139" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>314700</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C140" s="6">
+        <v>45038</v>
+      </c>
+      <c r="D140" s="7">
+        <v>4</v>
+      </c>
+      <c r="E140" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I140" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>314700</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C141" s="6">
+        <v>45017</v>
+      </c>
+      <c r="D141" s="7">
+        <v>4</v>
+      </c>
+      <c r="E141" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I141" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>314700</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C142" s="6">
+        <v>45072</v>
+      </c>
+      <c r="D142" s="7">
+        <v>5</v>
+      </c>
+      <c r="E142" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I142" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>314700</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C143" s="6">
+        <v>45066</v>
+      </c>
+      <c r="D143" s="7">
+        <v>5</v>
+      </c>
+      <c r="E143" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I143" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>314740</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C144" s="6">
+        <v>45011</v>
+      </c>
+      <c r="D144" s="7">
+        <v>3</v>
+      </c>
+      <c r="E144" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I144" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>315180</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" s="6">
+        <v>44928</v>
+      </c>
+      <c r="D145" s="7">
+        <v>1</v>
+      </c>
+      <c r="E145" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I145" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>315460</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C146" s="6">
+        <v>44938</v>
+      </c>
+      <c r="D146" s="7">
+        <v>1</v>
+      </c>
+      <c r="E146" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I146" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <v>315460</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C147" s="6">
+        <v>45092</v>
+      </c>
+      <c r="D147" s="7">
+        <v>6</v>
+      </c>
+      <c r="E147" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I147" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>315895</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C148" s="6">
+        <v>45023</v>
+      </c>
+      <c r="D148" s="7">
+        <v>4</v>
+      </c>
+      <c r="E148" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I148" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>316870</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C149" s="6">
+        <v>45108</v>
+      </c>
+      <c r="D149" s="7">
+        <v>7</v>
+      </c>
+      <c r="E149" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I149" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>316940</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C150" s="6">
+        <v>44965</v>
+      </c>
+      <c r="D150" s="7">
+        <v>2</v>
+      </c>
+      <c r="E150" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F150" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I150" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <v>317010</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C151" s="6">
+        <v>45017</v>
+      </c>
+      <c r="D151" s="7">
+        <v>4</v>
+      </c>
+      <c r="E151" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I151" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
+        <v>317010</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C152" s="6">
+        <v>45056</v>
+      </c>
+      <c r="D152" s="7">
+        <v>5</v>
+      </c>
+      <c r="E152" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I152" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
         <v>317020</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B153" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C95" s="6">
-        <v>45046</v>
-      </c>
-      <c r="D95" s="7">
+      <c r="C153" s="6">
+        <v>44973</v>
+      </c>
+      <c r="D153" s="7">
+        <v>2</v>
+      </c>
+      <c r="E153" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F153" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I153" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
+        <v>317020</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C154" s="6">
+        <v>45052</v>
+      </c>
+      <c r="D154" s="7">
+        <v>5</v>
+      </c>
+      <c r="E154" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I154" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
+        <v>317040</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C155" s="6">
+        <v>44955</v>
+      </c>
+      <c r="D155" s="7">
+        <v>1</v>
+      </c>
+      <c r="E155" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I155" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
+        <v>317040</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C156" s="6">
+        <v>45081</v>
+      </c>
+      <c r="D156" s="7">
+        <v>6</v>
+      </c>
+      <c r="E156" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I156" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="4">
+        <v>311570</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" s="6">
+        <v>44941</v>
+      </c>
+      <c r="D157" s="7">
+        <v>1</v>
+      </c>
+      <c r="E157" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I157" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="4">
+        <v>315950</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C158" s="6">
+        <v>44963</v>
+      </c>
+      <c r="D158" s="7">
+        <v>2</v>
+      </c>
+      <c r="E158" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I158" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
+        <v>314930</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C159" s="6">
+        <v>44964</v>
+      </c>
+      <c r="D159" s="7">
+        <v>2</v>
+      </c>
+      <c r="E159" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I159" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
+        <v>314465</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C160" s="6">
+        <v>44977</v>
+      </c>
+      <c r="D160" s="7">
+        <v>2</v>
+      </c>
+      <c r="E160" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F160" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I160" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
+        <v>313690</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C161" s="6">
+        <v>44982</v>
+      </c>
+      <c r="D161" s="7">
+        <v>2</v>
+      </c>
+      <c r="E161" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I161" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
+        <v>312160</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C162" s="6">
+        <v>44991</v>
+      </c>
+      <c r="D162" s="7">
+        <v>3</v>
+      </c>
+      <c r="E162" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F162" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H162" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I162" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
+        <v>310720</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C163" s="6">
+        <v>45000</v>
+      </c>
+      <c r="D163" s="7">
+        <v>3</v>
+      </c>
+      <c r="E163" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F163" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I163" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
+        <v>314530</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C164" s="6">
+        <v>45001</v>
+      </c>
+      <c r="D164" s="7">
+        <v>3</v>
+      </c>
+      <c r="E164" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F164" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H164" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I164" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
+        <v>310180</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C165" s="6">
+        <v>45005</v>
+      </c>
+      <c r="D165" s="7">
+        <v>3</v>
+      </c>
+      <c r="E165" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F165" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I165" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
+        <v>311940</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C166" s="6">
+        <v>45011</v>
+      </c>
+      <c r="D166" s="7">
+        <v>3</v>
+      </c>
+      <c r="E166" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F166" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H166" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I166" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
+        <v>315725</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C167" s="6">
+        <v>44984</v>
+      </c>
+      <c r="D167" s="7">
+        <v>2</v>
+      </c>
+      <c r="E167" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H167" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I167" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="4">
+        <v>311260</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C168" s="6">
+        <v>45042</v>
+      </c>
+      <c r="D168" s="7">
         <v>4</v>
       </c>
-      <c r="E95" s="4">
-        <v>2023</v>
-      </c>
-      <c r="F95" s="8" t="s">
+      <c r="E168" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F168" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G95" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I95" s="7">
+      <c r="G168" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H168" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I168" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="4">
+        <v>310260</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C169" s="6">
+        <v>45052</v>
+      </c>
+      <c r="D169" s="7">
+        <v>5</v>
+      </c>
+      <c r="E169" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F169" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I169" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
+        <v>311550</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C170" s="6">
+        <v>45052</v>
+      </c>
+      <c r="D170" s="7">
+        <v>5</v>
+      </c>
+      <c r="E170" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F170" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H170" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I170" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
+        <v>312240</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C171" s="6">
+        <v>45053</v>
+      </c>
+      <c r="D171" s="7">
+        <v>5</v>
+      </c>
+      <c r="E171" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F171" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H171" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I171" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
+        <v>315890</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C172" s="6">
+        <v>45057</v>
+      </c>
+      <c r="D172" s="7">
+        <v>5</v>
+      </c>
+      <c r="E172" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F172" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I172" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
+        <v>310040</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C173" s="6">
+        <v>45071</v>
+      </c>
+      <c r="D173" s="7">
+        <v>5</v>
+      </c>
+      <c r="E173" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F173" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H173" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I173" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
+        <v>314170</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C174" s="6">
+        <v>45071</v>
+      </c>
+      <c r="D174" s="7">
+        <v>5</v>
+      </c>
+      <c r="E174" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F174" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I174" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
+        <v>312900</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C175" s="6">
+        <v>45088</v>
+      </c>
+      <c r="D175" s="7">
+        <v>6</v>
+      </c>
+      <c r="E175" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F175" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H175" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I175" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="4">
+        <v>310320</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C176" s="6">
+        <v>45060</v>
+      </c>
+      <c r="D176" s="7">
+        <v>5</v>
+      </c>
+      <c r="E176" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F176" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H176" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I176" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="4">
+        <v>310930</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C177" s="6">
+        <v>45121</v>
+      </c>
+      <c r="D177" s="7">
+        <v>7</v>
+      </c>
+      <c r="E177" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F177" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H177" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I177" s="7">
         <v>1</v>
       </c>
     </row>
